--- a/doc/transition_table.xlsx
+++ b/doc/transition_table.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="480" yWindow="72" windowWidth="22116" windowHeight="9528"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="change" sheetId="2" r:id="rId1"/>
+    <sheet name="kollision" sheetId="1" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Floor</t>
   </si>
@@ -40,6 +40,39 @@
   </si>
   <si>
     <t>-&gt;</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>box on storage</t>
+  </si>
+  <si>
+    <t>pawn</t>
+  </si>
+  <si>
+    <t>pawn on storage</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>pawn on stoage</t>
+  </si>
+  <si>
+    <t>sotrage</t>
+  </si>
+  <si>
+    <t>pull</t>
   </si>
 </sst>
 </file>
@@ -433,10 +466,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="15" customWidth="1"/>
+    <col min="8" max="12" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,18 +695,6 @@
       <c r="H8" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
